--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08563287296920234</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626817904565438</v>
+        <v>-1.628128275483921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02418727896762725</v>
+        <v>0.02758873428875803</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.227117465900998</v>
+        <v>-0.2309879789202764</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09135900434747173</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.650872064777155</v>
+        <v>-1.653251194679001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02600369703360824</v>
+        <v>0.03116175769411059</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2019489001514</v>
+        <v>-0.2056509931246992</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1020664202975546</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705377985919116</v>
+        <v>-1.706089442561944</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01451627720603537</v>
+        <v>-0.009333032239592204</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2120005862600262</v>
+        <v>-0.2153878754090652</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1104920153957503</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817070382766613</v>
+        <v>-1.819670662355001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02181500387150666</v>
+        <v>-0.01433369098796449</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2320709040757312</v>
+        <v>-0.2351134830372055</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1122057425974093</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.783792470504074</v>
+        <v>-1.784494483032174</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002265686384952114</v>
+        <v>0.00797488201823016</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2263603627036523</v>
+        <v>-0.2298027425219369</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1064763434375821</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.603208404755488</v>
+        <v>-1.599375668195121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06094849554560481</v>
+        <v>0.06944977281974982</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2086762578758391</v>
+        <v>-0.2119927161644197</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09557612086896289</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.342595697813051</v>
+        <v>-1.338710231612121</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09451760134558458</v>
+        <v>0.1075835340715016</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1982342150251303</v>
+        <v>-0.2027233175590799</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08107750488099176</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9349334025013404</v>
+        <v>-0.9317963823925881</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1922106721282331</v>
+        <v>0.2032618603788852</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1731018517153223</v>
+        <v>-0.1795144056155013</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0635718787246215</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4948203419753338</v>
+        <v>-0.498229667392071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2035215735338998</v>
+        <v>0.2118796150680065</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1251761175099589</v>
+        <v>-0.1316532061941112</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.04335540619418793</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01838049414882856</v>
+        <v>-0.02801191715206746</v>
       </c>
       <c r="F11" t="n">
-        <v>0.17802403778795</v>
+        <v>0.1882551620764044</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05951276182665813</v>
+        <v>-0.06519811889279621</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02044654478497654</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5349675019635496</v>
+        <v>0.5153457795974151</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1415634588621408</v>
+        <v>0.1486386748123874</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03354324862463853</v>
+        <v>0.02711652855236783</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.006929359022091058</v>
       </c>
       <c r="E13" t="n">
-        <v>1.105229907553425</v>
+        <v>1.079439604250913</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02076693541704085</v>
+        <v>0.02858351437342007</v>
       </c>
       <c r="G13" t="n">
-        <v>0.135240624051876</v>
+        <v>0.1318438907881091</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.04207545693851311</v>
       </c>
       <c r="E14" t="n">
-        <v>1.712159088574</v>
+        <v>1.677179661641334</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1848219980925272</v>
+        <v>-0.174126538163289</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2544395180888557</v>
+        <v>0.2505642830122135</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08803368086781148</v>
       </c>
       <c r="E15" t="n">
-        <v>2.356066700811291</v>
+        <v>2.314358342135066</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4591027000747785</v>
+        <v>-0.4493910020963533</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3788232311114</v>
+        <v>0.3748063343138406</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1476038995790901</v>
       </c>
       <c r="E16" t="n">
-        <v>2.978348864341033</v>
+        <v>2.929107250150262</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6938959843609596</v>
+        <v>-0.6843401142755431</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5282543104112021</v>
+        <v>0.5232536516628298</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2220235758035863</v>
       </c>
       <c r="E17" t="n">
-        <v>3.576376967230653</v>
+        <v>3.522819392609275</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9385135089927388</v>
+        <v>-0.9297178901429105</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6907151199971313</v>
+        <v>0.6858907513903447</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3102692142479897</v>
       </c>
       <c r="E18" t="n">
-        <v>4.147656189172888</v>
+        <v>4.087218576972306</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.160037812086355</v>
+        <v>-1.151015534483059</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8256636493618458</v>
+        <v>0.8189063852741019</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4092055221349028</v>
       </c>
       <c r="E19" t="n">
-        <v>4.623727716525009</v>
+        <v>4.559230709010592</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.371103545128489</v>
+        <v>-1.365141160697002</v>
       </c>
       <c r="G19" t="n">
-        <v>1.000645781057722</v>
+        <v>0.9936650062547534</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5127538428902355</v>
       </c>
       <c r="E20" t="n">
-        <v>4.993209817020889</v>
+        <v>4.92506580720242</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.54294550867737</v>
+        <v>-1.536336202387028</v>
       </c>
       <c r="G20" t="n">
-        <v>1.136123180847193</v>
+        <v>1.13148454649672</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6140879998502706</v>
       </c>
       <c r="E21" t="n">
-        <v>5.331419305614769</v>
+        <v>5.265685119071009</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.756589485040194</v>
+        <v>-1.747046994117309</v>
       </c>
       <c r="G21" t="n">
-        <v>1.268342361055572</v>
+        <v>1.263637617902005</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7095901728137773</v>
       </c>
       <c r="E22" t="n">
-        <v>5.629834442783923</v>
+        <v>5.560667320536608</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.906752483231401</v>
+        <v>-1.894750587431484</v>
       </c>
       <c r="G22" t="n">
-        <v>1.37629646248998</v>
+        <v>1.371065996949898</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7976423050110202</v>
       </c>
       <c r="E23" t="n">
-        <v>5.79447054679549</v>
+        <v>5.723814402459424</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.035501738286873</v>
+        <v>-2.02081928792338</v>
       </c>
       <c r="G23" t="n">
-        <v>1.48660057447249</v>
+        <v>1.479240461061288</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8766853891463714</v>
       </c>
       <c r="E24" t="n">
-        <v>5.954008402873164</v>
+        <v>5.879598222932795</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.128613626416976</v>
+        <v>-2.111404875363796</v>
       </c>
       <c r="G24" t="n">
-        <v>1.525804668726726</v>
+        <v>1.521049556961277</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9454837336474069</v>
       </c>
       <c r="E25" t="n">
-        <v>6.050610678404751</v>
+        <v>5.979145488240336</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.161957647482609</v>
+        <v>-2.144406547270546</v>
       </c>
       <c r="G25" t="n">
-        <v>1.598231584574256</v>
+        <v>1.594540509734806</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.003503592921102</v>
       </c>
       <c r="E26" t="n">
-        <v>6.106691405677573</v>
+        <v>6.039814481251749</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.185508908585071</v>
+        <v>-2.170524246550289</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668640607908278</v>
+        <v>1.663905958391406</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.049981497419911</v>
       </c>
       <c r="E27" t="n">
-        <v>6.095235694512747</v>
+        <v>6.029877698538979</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.182212912545067</v>
+        <v>-2.173557381397035</v>
       </c>
       <c r="G27" t="n">
-        <v>1.64194681763014</v>
+        <v>1.639198580244349</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.084266665814851</v>
       </c>
       <c r="E28" t="n">
-        <v>6.035981744691383</v>
+        <v>5.971933332626536</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.197823247180567</v>
+        <v>-2.193578117610419</v>
       </c>
       <c r="G28" t="n">
-        <v>1.635224181963065</v>
+        <v>1.634918822253532</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.106796520632359</v>
       </c>
       <c r="E29" t="n">
-        <v>5.934463807443973</v>
+        <v>5.872776424061078</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.150948957748232</v>
+        <v>-2.151670645515349</v>
       </c>
       <c r="G29" t="n">
-        <v>1.609303235073485</v>
+        <v>1.610099688748863</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.120008581209654</v>
       </c>
       <c r="E30" t="n">
-        <v>5.805033789118539</v>
+        <v>5.745170693897231</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.152868474066659</v>
+        <v>-2.157293828826196</v>
       </c>
       <c r="G30" t="n">
-        <v>1.544620493302755</v>
+        <v>1.545470463628257</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.126643428998723</v>
       </c>
       <c r="E31" t="n">
-        <v>5.606411464239848</v>
+        <v>5.548514318901045</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.098180753716188</v>
+        <v>-2.108944683477203</v>
       </c>
       <c r="G31" t="n">
-        <v>1.482051659211931</v>
+        <v>1.484492962869068</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.128428635747057</v>
       </c>
       <c r="E32" t="n">
-        <v>5.426499504656058</v>
+        <v>5.375967194785821</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.023295220001186</v>
+        <v>-2.036337542440283</v>
       </c>
       <c r="G32" t="n">
-        <v>1.438418275150354</v>
+        <v>1.442147126448716</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.126108824608348</v>
       </c>
       <c r="E33" t="n">
-        <v>5.160457218754694</v>
+        <v>5.115098709736173</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.990377758117425</v>
+        <v>-2.005094049892026</v>
       </c>
       <c r="G33" t="n">
-        <v>1.378363149596248</v>
+        <v>1.382830215862499</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.119489767717179</v>
       </c>
       <c r="E34" t="n">
-        <v>4.935216656515688</v>
+        <v>4.89797064204835</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.923055386280273</v>
+        <v>-1.940871708714276</v>
       </c>
       <c r="G34" t="n">
-        <v>1.283086198164796</v>
+        <v>1.287732702610876</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.107187677742411</v>
       </c>
       <c r="E35" t="n">
-        <v>4.645118636383486</v>
+        <v>4.614629886003891</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.886047835709812</v>
+        <v>-1.90354384525263</v>
       </c>
       <c r="G35" t="n">
-        <v>1.197797972077118</v>
+        <v>1.20454106999277</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.088057623553402</v>
       </c>
       <c r="E36" t="n">
-        <v>4.271906110570121</v>
+        <v>4.249391341059037</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.847652787283924</v>
+        <v>-1.868287390954616</v>
       </c>
       <c r="G36" t="n">
-        <v>1.148521729465679</v>
+        <v>1.155307325897606</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.060889430991782</v>
       </c>
       <c r="E37" t="n">
-        <v>3.959562478196577</v>
+        <v>3.939759743631493</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.805151909980124</v>
+        <v>-1.826922955456394</v>
       </c>
       <c r="G37" t="n">
-        <v>1.065739341819112</v>
+        <v>1.072504476002462</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.024872738342997</v>
       </c>
       <c r="E38" t="n">
-        <v>3.67410466643397</v>
+        <v>3.660654673042455</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.728455467266066</v>
+        <v>-1.750852185343053</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9869738509701041</v>
+        <v>0.9964856485201242</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9797047083064109</v>
       </c>
       <c r="E39" t="n">
-        <v>3.32943225532803</v>
+        <v>3.320742095759329</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.690129675681515</v>
+        <v>-1.708071132635661</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9034249160114637</v>
+        <v>0.9125605229914928</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9261115343542364</v>
       </c>
       <c r="E40" t="n">
-        <v>3.000759748590113</v>
+        <v>2.997490510875171</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.651360010704758</v>
+        <v>-1.665053977060074</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8421074271220741</v>
+        <v>0.8523338293531646</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8646706523570686</v>
       </c>
       <c r="E41" t="n">
-        <v>2.677571124470806</v>
+        <v>2.675910534297834</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.63155255408231</v>
+        <v>-1.644894727164016</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7871143470620706</v>
+        <v>0.795905243854535</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7957199461284</v>
       </c>
       <c r="E42" t="n">
-        <v>2.340912044711409</v>
+        <v>2.339599312764244</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.579798018364383</v>
+        <v>-1.592218603250567</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7252097490404359</v>
+        <v>0.7362514931763602</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7211798236007939</v>
       </c>
       <c r="E43" t="n">
-        <v>2.083084564604113</v>
+        <v>2.08429026325103</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.526255396924658</v>
+        <v>-1.538284051049638</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6490366676842104</v>
+        <v>0.6595180610129516</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6441087619144136</v>
       </c>
       <c r="E44" t="n">
-        <v>1.829401476843203</v>
+        <v>1.829982289898963</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.507393138784551</v>
+        <v>-1.516263523542641</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5630967976803142</v>
+        <v>0.5711919780211636</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5677289882833608</v>
       </c>
       <c r="E45" t="n">
-        <v>1.603543899108646</v>
+        <v>1.603838240684329</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.42737708974367</v>
+        <v>-1.431351488024954</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5080234426451243</v>
+        <v>0.5139134221970315</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4940328529938394</v>
       </c>
       <c r="E46" t="n">
-        <v>1.390756976157369</v>
+        <v>1.393900292342607</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.364596550081032</v>
+        <v>-1.370821008696215</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4446376926303457</v>
+        <v>0.4512485729398086</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.423860309331618</v>
       </c>
       <c r="E47" t="n">
-        <v>1.238188876748815</v>
+        <v>1.238692562867632</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.315830289664894</v>
+        <v>-1.321022978746065</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3805672442978011</v>
+        <v>0.3876928288599294</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3577615178607627</v>
       </c>
       <c r="E48" t="n">
-        <v>1.027692151619032</v>
+        <v>1.02862239691972</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.237954119619421</v>
+        <v>-1.241053363269262</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2950602295522626</v>
+        <v>0.3008368797274361</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2957025096932187</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8699533993970046</v>
+        <v>0.8713007597648379</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.167293253225991</v>
+        <v>-1.169387485666881</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2498276420634447</v>
+        <v>0.2540365691938028</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2371004845529656</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7707240859519665</v>
+        <v>0.7694680186931686</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.094234368701258</v>
+        <v>-1.096767752476992</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2129357818983992</v>
+        <v>0.2171368389331507</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1811082869580863</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6346800392788268</v>
+        <v>0.6339544164639072</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.062575335104977</v>
+        <v>-1.064653040345094</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1709503958568247</v>
+        <v>0.1754457944672594</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1271572730144028</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4621911538710909</v>
+        <v>0.4598505874377168</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.025252980710256</v>
+        <v>-1.026753807942416</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1280583748013809</v>
+        <v>0.1321272142299432</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07535488679772497</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4014670701904317</v>
+        <v>0.3969622274652692</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.024199174908545</v>
+        <v>-1.021128263602887</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1013677325614852</v>
+        <v>0.104863629029894</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02612231810570059</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2462026760270893</v>
+        <v>0.243034175535911</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.963206720967704</v>
+        <v>-0.9597407308625998</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05468862150019197</v>
+        <v>0.05720862611339438</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.01977464872032284</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1276743141357836</v>
+        <v>0.1243814661340225</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9384190678454607</v>
+        <v>-0.9308322956807914</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02750373725620779</v>
+        <v>0.02990726445443394</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06175568979958766</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03932776889541856</v>
+        <v>0.03427516751604335</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9219855212095209</v>
+        <v>-0.9136022953694735</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008481487894968531</v>
+        <v>-0.007367082357087644</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09992751482882703</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07288562828122877</v>
+        <v>-0.07879449606259155</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9229370157683472</v>
+        <v>-0.9144152762456252</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05085880469774695</v>
+        <v>-0.05152461478605714</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1347630603942067</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1288325639287404</v>
+        <v>-0.131631169926413</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9025605512335491</v>
+        <v>-0.8941096425712857</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08128144627424665</v>
+        <v>-0.08092571795283268</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1665302483915315</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2079270247741</v>
+        <v>-0.2095545605455249</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9103692600943218</v>
+        <v>-0.8980391813076128</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1054977304554577</v>
+        <v>-0.1055953196409784</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1955859719655237</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3020281839219403</v>
+        <v>-0.3011908057494083</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9066207335569443</v>
+        <v>-0.8940340896534633</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1243906819684299</v>
+        <v>-0.1225931521319045</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.222509023193863</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3941114505562731</v>
+        <v>-0.3914214518779703</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8884801631839538</v>
+        <v>-0.8762020270282478</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1464269496666395</v>
+        <v>-0.142916887026139</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2479657798096233</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5030949604960114</v>
+        <v>-0.4990528793925113</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8767308974530048</v>
+        <v>-0.8650634807163635</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1758626812540837</v>
+        <v>-0.1733363805643961</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2725598444349981</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5666601486906184</v>
+        <v>-0.5637608054691826</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8862308898596152</v>
+        <v>-0.8723307269994087</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1968616703513562</v>
+        <v>-0.1925976525517526</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2962672327174745</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6885238570999603</v>
+        <v>-0.68397336782028</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9075076933317971</v>
+        <v>-0.8917415308032889</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2342509205587327</v>
+        <v>-0.2298389449617269</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3187587554417216</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.810533949287583</v>
+        <v>-0.8037499268747771</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9408564364547949</v>
+        <v>-0.9259166339649694</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.280250055359624</v>
+        <v>-0.2758034513419496</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3395152666358149</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9070480797483774</v>
+        <v>-0.9024220375508747</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9702512435450852</v>
+        <v>-0.9564486698703994</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3065487668383159</v>
+        <v>-0.2998418713624537</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.357801737884528</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9502234242456552</v>
+        <v>-0.9431899198021231</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.009331777298299</v>
+        <v>-0.9962682056010642</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3468955989746164</v>
+        <v>-0.338831899016193</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.373246694029813</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9957157248894877</v>
+        <v>-0.9898320414140658</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.020474258657987</v>
+        <v>-1.004192604867252</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3695709184360741</v>
+        <v>-0.3609720519764085</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3857654925642873</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.063293874833851</v>
+        <v>-1.053525512167059</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.068728175850141</v>
+        <v>-1.050798524039405</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3898332665845778</v>
+        <v>-0.3807133997957617</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3947229086429854</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.090015210446612</v>
+        <v>-1.076715535881182</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.113200512103371</v>
+        <v>-1.091563258252411</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4037082451388435</v>
+        <v>-0.3937541482157379</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3991770279039084</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.111151926216998</v>
+        <v>-1.095558118782272</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.121672670023772</v>
+        <v>-1.099918938757836</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4335532216978258</v>
+        <v>-0.4236321791762676</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.398710800646853</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.13712324171846</v>
+        <v>-1.115303401649429</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.165575211355091</v>
+        <v>-1.142140427667605</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4112194643856903</v>
+        <v>-0.3995370944673966</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3939333605250239</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.113938727071261</v>
+        <v>-1.090051412886402</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.189612844366034</v>
+        <v>-1.1687570910088</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.417949970148372</v>
+        <v>-0.4045346051775263</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3857114018730942</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.118434125681696</v>
+        <v>-1.09233688865053</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.21390704249375</v>
+        <v>-1.193657286498216</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4230072935851112</v>
+        <v>-0.4114099206993677</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.374708840533275</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.077529303766894</v>
+        <v>-1.048994698126395</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.229589782008829</v>
+        <v>-1.209031518265521</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4306098059409935</v>
+        <v>-0.4181640367488689</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3608414741919884</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9877850295468142</v>
+        <v>-0.9584287859249957</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.245596769462896</v>
+        <v>-1.220939759927721</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4040136048483758</v>
+        <v>-0.3912042372392308</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3438372461958722</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9261063032690861</v>
+        <v>-0.8948171641663104</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.254449053001091</v>
+        <v>-1.23127319545906</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3866238415962457</v>
+        <v>-0.3735736490615418</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3236512205902475</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7770230821950914</v>
+        <v>-0.7479131725657565</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.241104518890704</v>
+        <v>-1.218119904671911</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3429605511713647</v>
+        <v>-0.3288888202269366</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3006989836188385</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6632120556103239</v>
+        <v>-0.6342863062181812</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.261267703834566</v>
+        <v>-1.239621005868878</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.328237176310718</v>
+        <v>-0.3157142801816498</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.275289620776442</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5051270191816106</v>
+        <v>-0.4797380907550305</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.256660549866519</v>
+        <v>-1.237697554502649</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3051951103939973</v>
+        <v>-0.2912666151896075</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2477967336827307</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.359755335195643</v>
+        <v>-0.3348433345628171</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.275631415325996</v>
+        <v>-1.260735685371567</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2824300718426254</v>
+        <v>-0.2688462868258005</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2184103767473692</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.19837902478429</v>
+        <v>-0.1758154606804447</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28799297449513</v>
+        <v>-1.273784303887149</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2569010557142496</v>
+        <v>-0.2435832799289245</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1868590208536434</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.003576844312995587</v>
+        <v>0.01776055889535653</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.268079271581995</v>
+        <v>-1.258075593056568</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1915462077787237</v>
+        <v>-0.1800904966138973</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.152567497437558</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1607176975492489</v>
+        <v>0.1816757621493676</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.266183365550388</v>
+        <v>-1.25703674043651</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1677800930662046</v>
+        <v>-0.1558805085091714</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1152473593788598</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3295218041940199</v>
+        <v>0.347996066620726</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.188177338927408</v>
+        <v>-1.184378443778149</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1223869556270141</v>
+        <v>-0.1120157436367639</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.07531973672676742</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5330251623678645</v>
+        <v>0.5465570047536865</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119035400986033</v>
+        <v>-1.117082830266059</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06968249936938187</v>
+        <v>-0.06168490821405308</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.03408237519824111</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7226362277771092</v>
+        <v>0.7346570118064826</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037380798039877</v>
+        <v>-1.040339953987923</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02355272098142262</v>
+        <v>-0.01745811894374635</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.006085275323908906</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8795989885723351</v>
+        <v>0.886403473233718</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9128585713346589</v>
+        <v>-0.9181913481176256</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0002259858840668743</v>
+        <v>0.006141149741914859</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04208419197489782</v>
       </c>
       <c r="E89" t="n">
-        <v>1.019529288455966</v>
+        <v>1.024381989406936</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8079147814697387</v>
+        <v>-0.8179727636548502</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03519596870200425</v>
+        <v>0.04366576559372325</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07059337939896131</v>
       </c>
       <c r="E90" t="n">
-        <v>1.120102814230595</v>
+        <v>1.119051369457566</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6627587381033894</v>
+        <v>-0.6741782468284259</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0529225720460926</v>
+        <v>0.0602559271322325</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08923178584985883</v>
       </c>
       <c r="E91" t="n">
-        <v>1.220917164930783</v>
+        <v>1.218159483430264</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4896670033721953</v>
+        <v>-0.5024968332299172</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02721254371876717</v>
+        <v>0.03363296771455267</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09682699838927281</v>
       </c>
       <c r="E92" t="n">
-        <v>1.257604402610059</v>
+        <v>1.251750625497942</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3402658304356979</v>
+        <v>-0.3571550556072543</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05483500527847294</v>
+        <v>0.06072970688774401</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09360244984897301</v>
       </c>
       <c r="E93" t="n">
-        <v>1.286457747122622</v>
+        <v>1.278367288839137</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.232839025406926</v>
+        <v>-0.2497376946932101</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04270403991060854</v>
+        <v>0.04552153413773677</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08186687416321051</v>
       </c>
       <c r="E94" t="n">
-        <v>1.237151598147878</v>
+        <v>1.227055839503856</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1060549332243982</v>
+        <v>-0.1249604768903407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06029842564850763</v>
+        <v>0.06484104483258141</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06505918626047003</v>
       </c>
       <c r="E95" t="n">
-        <v>1.20820696052628</v>
+        <v>1.198484244414005</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01764542721918113</v>
+        <v>-0.03308025872265568</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01701132579361741</v>
+        <v>0.02191439535646905</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04613092757045134</v>
       </c>
       <c r="E96" t="n">
-        <v>1.11984310107558</v>
+        <v>1.110432040749324</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06107284305618756</v>
+        <v>0.04672408474641049</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02436648886713507</v>
+        <v>-0.01946656734252603</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.02905711746193181</v>
       </c>
       <c r="E97" t="n">
-        <v>1.059876120592267</v>
+        <v>1.053394309850751</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1090867223323437</v>
+        <v>0.09465139297089513</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01076696365909713</v>
+        <v>-0.005701770126751516</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01495755270786991</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9579426422968342</v>
+        <v>0.9497955193249819</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1053814813208019</v>
+        <v>0.09294515624340519</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06417028440658687</v>
+        <v>-0.05970007010209291</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.004897064798386182</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9012622137387964</v>
+        <v>0.8958743462865842</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1189825805479612</v>
+        <v>0.1075189992875283</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05598223693758068</v>
+        <v>-0.05043696757323837</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.004734767736305637</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8486758089152618</v>
+        <v>0.8442417970505578</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1123055914354037</v>
+        <v>0.1020067843247332</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06438120296884116</v>
+        <v>-0.05955211230469065</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01571292012472562</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7691469187924233</v>
+        <v>0.7650544690770414</v>
       </c>
       <c r="F101" t="n">
-        <v>0.106355799156887</v>
+        <v>0.09691011040996163</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06187221648948786</v>
+        <v>-0.05773726825783095</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0348233627135574</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7467344605242228</v>
+        <v>0.7433943919488227</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1054334239518048</v>
+        <v>0.09768924987500546</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06191156696752038</v>
+        <v>-0.0585337219332091</v>
       </c>
     </row>
   </sheetData>
